--- a/data files/Purchase Order/BIOWIL.xlsx
+++ b/data files/Purchase Order/BIOWIL.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454247AA-F2E3-4613-8750-F537339B9EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Enmedy Medical Systems INC</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Biowill Pharmaceuticals</t>
   </si>
   <si>
-    <t>24/09/24</t>
-  </si>
-  <si>
     <t>Ramnagar</t>
   </si>
   <si>
@@ -102,15 +100,9 @@
     <t>Box of 12 pcs</t>
   </si>
   <si>
-    <t>Hand Sanitizer 120 ml</t>
-  </si>
-  <si>
     <t>Hand Sanitizer 50 ml</t>
   </si>
   <si>
-    <t>Hand Sanitizer 60 ml</t>
-  </si>
-  <si>
     <t>GST Extra as applicable.</t>
   </si>
   <si>
@@ -118,12 +110,27 @@
   </si>
   <si>
     <t>Aut.Signatory</t>
+  </si>
+  <si>
+    <t>MRP 990</t>
+  </si>
+  <si>
+    <t>MRP 250</t>
+  </si>
+  <si>
+    <t>MRP 60</t>
+  </si>
+  <si>
+    <t>MRP 30</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,26 +321,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,6 +347,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -365,7 +372,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9"/>
+        <xdr:cNvPr id="2" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -400,18 +413,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>7617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -455,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,7 +514,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -567,7 +586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -740,11 +759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -823,12 +842,12 @@
       </c>
       <c r="C12" s="1"/>
       <c r="G12" s="12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -840,25 +859,25 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -866,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="22">
         <v>313</v>
@@ -878,15 +897,17 @@
         <v>200</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
       <c r="E17" s="20"/>
@@ -894,160 +915,146 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <v>2</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B19" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="22">
+        <v>55</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="E19" s="20">
+        <v>500</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="22">
-        <v>55</v>
-      </c>
-      <c r="D18" s="23">
-        <v>0.18</v>
-      </c>
-      <c r="E18" s="20">
-        <v>200</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="G19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>3</v>
-      </c>
+      <c r="A20" s="15"/>
       <c r="B20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="22">
-        <v>14</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0.18</v>
-      </c>
-      <c r="E20" s="20">
-        <v>2000</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>27</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>4</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="22">
-        <v>15.9</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0.18</v>
-      </c>
+      <c r="A21" s="15"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="24"/>
+      <c r="A22" s="15">
+        <v>3</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="22">
+        <v>14</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="E22" s="20">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>5</v>
-      </c>
+      <c r="A23" s="15"/>
       <c r="B23" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="22">
-        <v>10</v>
-      </c>
-      <c r="D23" s="23">
-        <v>0.18</v>
-      </c>
-      <c r="E23" s="20">
-        <v>2000</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>27</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>6</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="22">
-        <v>11</v>
-      </c>
-      <c r="D24" s="23">
-        <v>0.18</v>
-      </c>
+      <c r="A24" s="15"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>5</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>32</v>
-      </c>
+      <c r="C25" s="22">
+        <v>10</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
@@ -1055,7 +1062,9 @@
       <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
@@ -1063,25 +1072,25 @@
       <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>33</v>
-      </c>
+      <c r="A30" s="31"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
       <c r="D30" s="28"/>
       <c r="G30" s="29"/>
       <c r="H30" s="30"/>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
       <c r="D31" s="28"/>
       <c r="G31" s="29"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
       <c r="D32" s="28"/>
@@ -1102,7 +1111,7 @@
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="32"/>
+      <c r="H34" s="30"/>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
@@ -1142,7 +1151,7 @@
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="32"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
@@ -1150,16 +1159,33 @@
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="32"/>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1171,7 +1197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
